--- a/IP mạng.xlsx
+++ b/IP mạng.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thiết kế mạng\Đồ án\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21521935_ms_uit_edu_vn/Documents/subject/Năm 3/Học kì 1/NT113/Do an/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53CE038-B918-406C-8CAF-4E0BA5ABB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{F53CE038-B918-406C-8CAF-4E0BA5ABB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE85DE6C-573D-4370-B034-3CD870F51B5A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{62D17866-6450-4F33-91E6-029E69A206F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{62D17866-6450-4F33-91E6-029E69A206F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="191">
   <si>
     <t>Tòa</t>
   </si>
@@ -586,6 +586,66 @@
   </si>
   <si>
     <t>40 * 22 = 1000</t>
+  </si>
+  <si>
+    <t>Vlan tag</t>
+  </si>
+  <si>
+    <t>Vlan name</t>
+  </si>
+  <si>
+    <t>thuvien</t>
+  </si>
+  <si>
+    <t>cacphongthamquyen</t>
+  </si>
+  <si>
+    <t>Khoa hệ thống thông tin</t>
+  </si>
+  <si>
+    <t>Khoa công nghệ phần phềm</t>
+  </si>
+  <si>
+    <t>Khoa Khoa học máy tính</t>
+  </si>
+  <si>
+    <t>Khoa Kỹ thuật máy tính</t>
+  </si>
+  <si>
+    <t>Khoa mạng máy tính và truyền thông</t>
+  </si>
+  <si>
+    <t>Khoa khoa học và kỹ thuật thông tin</t>
+  </si>
+  <si>
+    <t>Văn phòng các chương trình đặc biệt</t>
+  </si>
+  <si>
+    <t>Phòng học</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng học lớn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng học </t>
+  </si>
+  <si>
+    <t>Phòng nghiên cứu khoa học</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Văn phòng ngoại ngữ </t>
+  </si>
+  <si>
+    <t>Phòng thực hành Lab</t>
+  </si>
+  <si>
+    <t>Các phòng chứa đồ</t>
+  </si>
+  <si>
+    <t>ACL vlan type</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
@@ -616,15 +676,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -632,13 +728,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,6 +825,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444914</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91A0E9E-78DB-0472-233C-4DE586491CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858750" y="171450"/>
+          <a:ext cx="5188364" cy="6497324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,947 +1239,1216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584DA03-D6FB-4347-A6C8-C12456734F52}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="4">
+        <v>101</v>
+      </c>
+      <c r="H2" s="11">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I3">
+      <c r="L2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="4">
+        <v>102</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="4">
+        <v>103</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="4">
+        <v>201</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="B4">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="4">
+        <v>202</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="4">
+        <v>203</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="4">
+        <v>204</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="4">
+        <v>205</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>206</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>207</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="4">
+        <v>208</v>
+      </c>
+      <c r="H14" s="12">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="4">
+        <v>301</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="4">
+        <v>302</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="4">
+        <v>303</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="4">
+        <v>401</v>
+      </c>
+      <c r="H23" s="12">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="4">
+        <v>402</v>
+      </c>
+      <c r="H24" s="12">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="4" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="K24" ca="1">+I17+I16:J16+I16:M16+I16:K16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="4">
+        <v>403</v>
+      </c>
+      <c r="H25" s="12">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>404</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="4">
+        <v>405</v>
+      </c>
+      <c r="H27" s="12">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="4">
+        <v>406</v>
+      </c>
+      <c r="H28" s="12">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="4">
+        <v>407</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="4">
+        <v>408</v>
+      </c>
+      <c r="H30" s="12">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="4">
+        <v>409</v>
+      </c>
+      <c r="H31" s="12">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="4">
+        <v>410</v>
+      </c>
+      <c r="H32" s="12">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>411</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <v>412</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J37" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="H25" ca="1">+F18+F17:G17+F17:J17+F17:H17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="81e90ab8-9e7d-4b67-ba12-d147179b0223" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1964,7 +2457,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100597AE72EEA79B74DA5C86E3CA8C98E55" ma:contentTypeVersion="14" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="650867b8d53547afaf39f2ceaf74978e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="81e90ab8-9e7d-4b67-ba12-d147179b0223" xmlns:ns4="86b2c21e-bc8a-47d8-90cc-43181eba94ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59f311a94ed60c689472b0d3e93e8568" ns3:_="" ns4:_="">
     <xsd:import namespace="81e90ab8-9e7d-4b67-ba12-d147179b0223"/>
@@ -2193,15 +2686,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="81e90ab8-9e7d-4b67-ba12-d147179b0223" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688BB7A4-BE05-4053-AC67-E72F7E9AE290}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="86b2c21e-bc8a-47d8-90cc-43181eba94ed"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="81e90ab8-9e7d-4b67-ba12-d147179b0223"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30CCF9BB-DD16-4B05-8041-83B167299B5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2209,7 +2711,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE884D8-DA38-4AE3-AFBF-766E7E227C12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2226,21 +2728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688BB7A4-BE05-4053-AC67-E72F7E9AE290}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="86b2c21e-bc8a-47d8-90cc-43181eba94ed"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="81e90ab8-9e7d-4b67-ba12-d147179b0223"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IP mạng.xlsx
+++ b/IP mạng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/21521935_ms_uit_edu_vn/Documents/subject/Năm 3/Học kì 1/NT113/Do an/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{F53CE038-B918-406C-8CAF-4E0BA5ABB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE85DE6C-573D-4370-B034-3CD870F51B5A}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{F53CE038-B918-406C-8CAF-4E0BA5ABB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EFD256F-5707-4AED-84DB-BE2DF7635F3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{62D17866-6450-4F33-91E6-029E69A206F6}"/>
   </bookViews>
@@ -594,9 +594,6 @@
     <t>Vlan name</t>
   </si>
   <si>
-    <t>thuvien</t>
-  </si>
-  <si>
     <t>cacphongthamquyen</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thư viên và hội trường </t>
   </si>
 </sst>
 </file>
@@ -790,15 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,6 +801,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,37 +1259,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2">
@@ -1313,12 +1313,12 @@
         <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="4">
         <v>101</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2">
         <v>3</v>
       </c>
@@ -1349,12 +1349,12 @@
         <v>34</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="4">
         <v>102</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1371,7 +1371,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2">
         <v>4</v>
       </c>
@@ -1385,13 +1385,13 @@
         <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G4" s="4">
         <v>103</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>190</v>
+      <c r="H4" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>45</v>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2">
@@ -1469,13 +1469,13 @@
         <v>102</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="4">
         <v>201</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>190</v>
+      <c r="H7" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>51</v>
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1505,13 +1505,13 @@
         <v>103</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="4">
         <v>202</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>190</v>
+      <c r="H8" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>53</v>
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1541,13 +1541,13 @@
         <v>104</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9" s="4">
         <v>203</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>190</v>
+      <c r="H9" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>57</v>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1577,13 +1577,13 @@
         <v>105</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="4">
         <v>204</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>190</v>
+      <c r="H10" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>59</v>
@@ -1599,7 +1599,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1613,13 +1613,13 @@
         <v>106</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11" s="4">
         <v>205</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>190</v>
+      <c r="H11" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>63</v>
@@ -1635,7 +1635,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1713,12 +1713,12 @@
         <v>109</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="4">
         <v>208</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="9">
         <v>3</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -1804,7 +1804,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2">
@@ -1820,13 +1820,13 @@
         <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="4">
         <v>301</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>190</v>
+      <c r="H18" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>35</v>
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -1856,13 +1856,13 @@
         <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="4">
         <v>302</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>190</v>
+      <c r="H19" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>38</v>
@@ -1878,7 +1878,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -1892,13 +1892,13 @@
         <v>34</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G20" s="4">
         <v>303</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>190</v>
+      <c r="H20" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>41</v>
@@ -1960,7 +1960,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="2"/>
@@ -1974,12 +1974,12 @@
         <v>102</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" s="4">
         <v>401</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="9">
         <v>3</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>90</v>
@@ -2008,12 +2008,12 @@
         <v>103</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" s="4">
         <v>402</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="9">
         <v>3</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>91</v>
@@ -2043,12 +2043,12 @@
         <v>104</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="4">
         <v>403</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="9">
         <v>3</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>92</v>
@@ -2095,7 +2095,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>93</v>
@@ -2107,12 +2107,12 @@
         <v>106</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="4">
         <v>405</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="9">
         <v>3</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>94</v>
@@ -2141,12 +2141,12 @@
         <v>107</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="4">
         <v>406</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="9">
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>95</v>
@@ -2175,12 +2175,12 @@
         <v>108</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="4">
         <v>407</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="9">
         <v>3</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -2197,7 +2197,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>96</v>
@@ -2209,12 +2209,12 @@
         <v>109</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="4">
         <v>408</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="9">
         <v>3</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -2231,7 +2231,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>97</v>
@@ -2243,12 +2243,12 @@
         <v>110</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G31" s="4">
         <v>409</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="9">
         <v>3</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>98</v>
@@ -2277,12 +2277,12 @@
         <v>111</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="4">
         <v>410</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="9">
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -2299,7 +2299,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>99</v>
@@ -2329,7 +2329,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>100</v>
